--- a/Samruddhi/src/test/java/toll/tcm/testData/seq.xlsx
+++ b/Samruddhi/src/test/java/toll/tcm/testData/seq.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,11 +408,11 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <f>A9*C3/100</f>
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -423,11 +423,11 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <f>A9*C4/100</f>
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,11 +453,11 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f>A9*C6/100</f>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,11 +468,11 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <f>A9*C7/100</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/Samruddhi/src/test/java/toll/tcm/testData/seq.xlsx
+++ b/Samruddhi/src/test/java/toll/tcm/testData/seq.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,11 +393,11 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <f>A9*C2/100</f>
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -408,11 +408,11 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <f>A9*C3/100</f>
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -423,11 +423,11 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <f>A9*C4/100</f>
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,11 +438,11 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <f>A9*C5/100</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -453,11 +453,11 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <f>A9*C6/100</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,11 +468,11 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <f>A9*C7/100</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
